--- a/data/births_data.xlsx
+++ b/data/births_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\favou\OneDrive\Documents\Documents\cs301\finalproject-struggle_bus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCD8A88-03C0-4DE6-A934-6185FE58C00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB33CEC-9154-4ABA-AF17-5EE8825449D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB2F916C-2845-479D-BDAE-B1CD1884B2E1}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{BB2F916C-2845-479D-BDAE-B1CD1884B2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1231251-73A0-44D2-B6EA-8AEF016190F8}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -846,7 +846,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="21" thickBot="1">
+    <row r="2" spans="1:13" ht="15" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="21" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -918,7 +918,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="21" thickBot="1">
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -954,7 +954,7 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="21" thickBot="1">
+    <row r="5" spans="1:13" ht="15" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="21" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="21" thickBot="1">
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="31.2" thickBot="1">
+    <row r="8" spans="1:13" ht="15" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="21" thickBot="1">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="21" thickBot="1">
+    <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="21" thickBot="1">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="21" thickBot="1">
+    <row r="12" spans="1:13" ht="15" thickBot="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="21" thickBot="1">
+    <row r="13" spans="1:13" ht="15" thickBot="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="21" thickBot="1">
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="21" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="21" thickBot="1">
+    <row r="16" spans="1:13" ht="15" thickBot="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="21" thickBot="1">
+    <row r="17" spans="1:12" ht="15" thickBot="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="21" thickBot="1">
+    <row r="18" spans="1:12" ht="15" thickBot="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="21" thickBot="1">
+    <row r="19" spans="1:12" ht="15" thickBot="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="31.2" thickBot="1">
+    <row r="20" spans="1:12" ht="15" thickBot="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="21" thickBot="1">
+    <row r="21" spans="1:12" ht="15" thickBot="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="21" thickBot="1">
+    <row r="22" spans="1:12" ht="15" thickBot="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" ht="21" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="21" thickBot="1">
+    <row r="24" spans="1:12" ht="15" thickBot="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="21" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="21" thickBot="1">
+    <row r="26" spans="1:12" ht="15" thickBot="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" ht="21" thickBot="1">
+    <row r="27" spans="1:12" ht="15" thickBot="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="21" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="21" thickBot="1">
+    <row r="29" spans="1:12" ht="15" thickBot="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="21" thickBot="1">
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" ht="21" thickBot="1">
+    <row r="31" spans="1:12" ht="15" thickBot="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" ht="21" thickBot="1">
+    <row r="32" spans="1:12" ht="15" thickBot="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" ht="21" thickBot="1">
+    <row r="33" spans="1:12" ht="15" thickBot="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" ht="21" thickBot="1">
+    <row r="34" spans="1:12" ht="15" thickBot="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" ht="21" thickBot="1">
+    <row r="35" spans="1:12" ht="15" thickBot="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" ht="21" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="21" thickBot="1">
+    <row r="37" spans="1:12" ht="15" thickBot="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" ht="21" thickBot="1">
+    <row r="38" spans="1:12" ht="15" thickBot="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" ht="21" thickBot="1">
+    <row r="39" spans="1:12" ht="15" thickBot="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" ht="21" thickBot="1">
+    <row r="40" spans="1:12" ht="15" thickBot="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" ht="31.2" thickBot="1">
+    <row r="41" spans="1:12" ht="15" thickBot="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="21" thickBot="1">
+    <row r="42" spans="1:12" ht="15" thickBot="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="21" thickBot="1">
+    <row r="43" spans="1:12" ht="15" thickBot="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="31.2" thickBot="1">
+    <row r="44" spans="1:12" ht="15" thickBot="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="21" thickBot="1">
+    <row r="45" spans="1:12" ht="15" thickBot="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="21" thickBot="1">
+    <row r="46" spans="1:12" ht="15" thickBot="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="21" thickBot="1">
+    <row r="47" spans="1:12" ht="15" thickBot="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="31.2" thickBot="1">
+    <row r="48" spans="1:12" ht="15" thickBot="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="21" thickBot="1">
+    <row r="49" spans="1:12" ht="15" thickBot="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="21" thickBot="1">
+    <row r="50" spans="1:12" ht="15" thickBot="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" ht="21" thickBot="1">
+    <row r="51" spans="1:12" ht="15" thickBot="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" ht="21" thickBot="1">
+    <row r="52" spans="1:12" ht="15" thickBot="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" ht="21" thickBot="1">
+    <row r="53" spans="1:12" ht="15" thickBot="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" ht="21" thickBot="1">
+    <row r="54" spans="1:12" ht="15" thickBot="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" ht="21" thickBot="1">
+    <row r="55" spans="1:12" ht="15" thickBot="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" ht="21" thickBot="1">
+    <row r="56" spans="1:12" ht="15" thickBot="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" ht="21" thickBot="1">
+    <row r="57" spans="1:12" ht="15" thickBot="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" ht="21" thickBot="1">
+    <row r="58" spans="1:12" ht="15" thickBot="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" ht="21" thickBot="1">
+    <row r="59" spans="1:12" ht="15" thickBot="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" ht="21" thickBot="1">
+    <row r="60" spans="1:12" ht="15" thickBot="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" ht="21" thickBot="1">
+    <row r="61" spans="1:12" ht="15" thickBot="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12" ht="21" thickBot="1">
+    <row r="62" spans="1:12" ht="15" thickBot="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12" ht="21" thickBot="1">
+    <row r="63" spans="1:12" ht="15" thickBot="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12" ht="21" thickBot="1">
+    <row r="64" spans="1:12" ht="15" thickBot="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12" ht="21" thickBot="1">
+    <row r="65" spans="1:12" ht="15" thickBot="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12" ht="21" thickBot="1">
+    <row r="66" spans="1:12" ht="15" thickBot="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12" ht="21" thickBot="1">
+    <row r="67" spans="1:12" ht="15" thickBot="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3222,7 +3222,7 @@
       </c>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12" ht="21" thickBot="1">
+    <row r="68" spans="1:12" ht="15" thickBot="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" ht="21" thickBot="1">
+    <row r="69" spans="1:12" ht="15" thickBot="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12" ht="21" thickBot="1">
+    <row r="70" spans="1:12" ht="15" thickBot="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12" ht="31.2" thickBot="1">
+    <row r="71" spans="1:12" ht="15" thickBot="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12" ht="21" thickBot="1">
+    <row r="72" spans="1:12" ht="15" thickBot="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12" ht="21" thickBot="1">
+    <row r="73" spans="1:12" ht="15" thickBot="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12" ht="21" thickBot="1">
+    <row r="74" spans="1:12" ht="15" thickBot="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12" ht="21" thickBot="1">
+    <row r="75" spans="1:12" ht="15" thickBot="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12" ht="21" thickBot="1">
+    <row r="76" spans="1:12" ht="15" thickBot="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12" ht="31.2" thickBot="1">
+    <row r="77" spans="1:12" ht="15" thickBot="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12" ht="21" thickBot="1">
+    <row r="78" spans="1:12" ht="15" thickBot="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12" ht="21" thickBot="1">
+    <row r="79" spans="1:12" ht="15" thickBot="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12" ht="31.2" thickBot="1">
+    <row r="80" spans="1:12" ht="15" thickBot="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12" ht="21" thickBot="1">
+    <row r="81" spans="1:12" ht="15" thickBot="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12" ht="21" thickBot="1">
+    <row r="82" spans="1:12" ht="15" thickBot="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12" ht="21" thickBot="1">
+    <row r="83" spans="1:12" ht="15" thickBot="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12" ht="21" thickBot="1">
+    <row r="84" spans="1:12" ht="15" thickBot="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12" ht="21" thickBot="1">
+    <row r="85" spans="1:12" ht="15" thickBot="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12" ht="21" thickBot="1">
+    <row r="86" spans="1:12" ht="15" thickBot="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12" ht="21" thickBot="1">
+    <row r="87" spans="1:12" ht="15" thickBot="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12" ht="21" thickBot="1">
+    <row r="88" spans="1:12" ht="15" thickBot="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12" ht="21" thickBot="1">
+    <row r="89" spans="1:12" ht="15" thickBot="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12" ht="21" thickBot="1">
+    <row r="90" spans="1:12" ht="15" thickBot="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12" ht="21" thickBot="1">
+    <row r="91" spans="1:12" ht="15" thickBot="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12" ht="21" thickBot="1">
+    <row r="92" spans="1:12" ht="15" thickBot="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12" ht="21" thickBot="1">
+    <row r="93" spans="1:12" ht="15" thickBot="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12" ht="21" thickBot="1">
+    <row r="94" spans="1:12" ht="15" thickBot="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L94" s="5"/>
     </row>
-    <row r="95" spans="1:12" ht="21" thickBot="1">
+    <row r="95" spans="1:12" ht="15" thickBot="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="L95" s="5"/>
     </row>
-    <row r="96" spans="1:12" ht="21" thickBot="1">
+    <row r="96" spans="1:12" ht="15" thickBot="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="L96" s="5"/>
     </row>
-    <row r="97" spans="1:12" ht="21" thickBot="1">
+    <row r="97" spans="1:12" ht="15" thickBot="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="L97" s="5"/>
     </row>
-    <row r="98" spans="1:12" ht="21" thickBot="1">
+    <row r="98" spans="1:12" ht="15" thickBot="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="L98" s="5"/>
     </row>
-    <row r="99" spans="1:12" ht="21" thickBot="1">
+    <row r="99" spans="1:12" ht="15" thickBot="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="L99" s="5"/>
     </row>
-    <row r="100" spans="1:12" ht="21" thickBot="1">
+    <row r="100" spans="1:12" ht="15" thickBot="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="L100" s="5"/>
     </row>
-    <row r="101" spans="1:12" ht="21" thickBot="1">
+    <row r="101" spans="1:12" ht="15" thickBot="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
